--- a/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,201 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45369</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B26" t="n">
         <v>10</v>
       </c>
     </row>
@@ -469,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +683,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,130 +524,106 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>540</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45242.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45249.99999999999</v>
-      </c>
-      <c r="B25" t="n">
         <v>840</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +686,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1020</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
@@ -743,14 +719,6 @@
       </c>
       <c r="B9" t="n">
         <v>860</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,467 @@
       </c>
       <c r="B9" t="n">
         <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-202.8635727769995</v>
+      </c>
+      <c r="D2" t="n">
+        <v>284.1561925255714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-192.8687157905289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>287.5140429485451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-189.7453598415397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>291.8990598294594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-178.0588071617111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>312.9125579642754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-176.3425100633189</v>
+      </c>
+      <c r="D6" t="n">
+        <v>311.3081505737908</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-148.6624365572835</v>
+      </c>
+      <c r="D7" t="n">
+        <v>332.4097344432367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-156.1322014449593</v>
+      </c>
+      <c r="D8" t="n">
+        <v>334.2309246189285</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>106</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-132.7747125672468</v>
+      </c>
+      <c r="D9" t="n">
+        <v>334.0601070366855</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>116</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-119.6655386299419</v>
+      </c>
+      <c r="D10" t="n">
+        <v>371.4929316892905</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>145</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-108.7835160166261</v>
+      </c>
+      <c r="D11" t="n">
+        <v>394.1344139254093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>155</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-88.10787608930444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>408.4624461893928</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-75.5032081500615</v>
+      </c>
+      <c r="D13" t="n">
+        <v>414.2430759986129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>185</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-62.87848337455383</v>
+      </c>
+      <c r="D14" t="n">
+        <v>418.8418665946095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>214</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-25.09451950646735</v>
+      </c>
+      <c r="D15" t="n">
+        <v>471.689708558026</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>224</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.889856550039705</v>
+      </c>
+      <c r="D16" t="n">
+        <v>467.106979003664</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>234</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.173508247153569</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476.9547651488971</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>244</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32.9041982393868</v>
+      </c>
+      <c r="D18" t="n">
+        <v>482.7621548996375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>254</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.78281918669733</v>
+      </c>
+      <c r="D19" t="n">
+        <v>481.9480631763515</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>293</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48.68833810964768</v>
+      </c>
+      <c r="D20" t="n">
+        <v>546.3291677403976</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>303</v>
+      </c>
+      <c r="C21" t="n">
+        <v>60.45622478727026</v>
+      </c>
+      <c r="D21" t="n">
+        <v>544.3824832138426</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>313</v>
+      </c>
+      <c r="C22" t="n">
+        <v>58.96182542808541</v>
+      </c>
+      <c r="D22" t="n">
+        <v>543.3745447467019</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>323</v>
+      </c>
+      <c r="C23" t="n">
+        <v>60.86403329918749</v>
+      </c>
+      <c r="D23" t="n">
+        <v>558.7319112537994</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>333</v>
+      </c>
+      <c r="C24" t="n">
+        <v>83.44239008115072</v>
+      </c>
+      <c r="D24" t="n">
+        <v>582.5509353217151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>343</v>
+      </c>
+      <c r="C25" t="n">
+        <v>92.83520857477819</v>
+      </c>
+      <c r="D25" t="n">
+        <v>591.829623457608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>353</v>
+      </c>
+      <c r="C26" t="n">
+        <v>116.4934122145539</v>
+      </c>
+      <c r="D26" t="n">
+        <v>588.7160980185839</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>363</v>
+      </c>
+      <c r="C27" t="n">
+        <v>128.8234941792677</v>
+      </c>
+      <c r="D27" t="n">
+        <v>606.1585475680794</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>372</v>
+      </c>
+      <c r="C28" t="n">
+        <v>126.4628130631263</v>
+      </c>
+      <c r="D28" t="n">
+        <v>606.9301286599317</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>382</v>
+      </c>
+      <c r="C29" t="n">
+        <v>137.5123834220825</v>
+      </c>
+      <c r="D29" t="n">
+        <v>613.0109405071452</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>392</v>
+      </c>
+      <c r="C30" t="n">
+        <v>144.4752250248308</v>
+      </c>
+      <c r="D30" t="n">
+        <v>618.731045328993</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>402</v>
+      </c>
+      <c r="C31" t="n">
+        <v>159.3371444400644</v>
+      </c>
+      <c r="D31" t="n">
+        <v>645.2468979219401</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHFLKC2_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>-202.8635727769995</v>
-      </c>
-      <c r="D2" t="n">
-        <v>284.1561925255714</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>-192.8687157905289</v>
-      </c>
-      <c r="D3" t="n">
-        <v>287.5140429485451</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>57</v>
       </c>
-      <c r="C4" t="n">
-        <v>-189.7453598415397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>291.8990598294594</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>66</v>
       </c>
-      <c r="C5" t="n">
-        <v>-178.0588071617111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>312.9125579642754</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>76</v>
       </c>
-      <c r="C6" t="n">
-        <v>-176.3425100633189</v>
-      </c>
-      <c r="D6" t="n">
-        <v>311.3081505737908</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>86</v>
       </c>
-      <c r="C7" t="n">
-        <v>-148.6624365572835</v>
-      </c>
-      <c r="D7" t="n">
-        <v>332.4097344432367</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>96</v>
       </c>
-      <c r="C8" t="n">
-        <v>-156.1322014449593</v>
-      </c>
-      <c r="D8" t="n">
-        <v>334.2309246189285</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>106</v>
       </c>
-      <c r="C9" t="n">
-        <v>-132.7747125672468</v>
-      </c>
-      <c r="D9" t="n">
-        <v>334.0601070366855</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>116</v>
       </c>
-      <c r="C10" t="n">
-        <v>-119.6655386299419</v>
-      </c>
-      <c r="D10" t="n">
-        <v>371.4929316892905</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>145</v>
       </c>
-      <c r="C11" t="n">
-        <v>-108.7835160166261</v>
-      </c>
-      <c r="D11" t="n">
-        <v>394.1344139254093</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>155</v>
       </c>
-      <c r="C12" t="n">
-        <v>-88.10787608930444</v>
-      </c>
-      <c r="D12" t="n">
-        <v>408.4624461893928</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>175</v>
       </c>
-      <c r="C13" t="n">
-        <v>-75.5032081500615</v>
-      </c>
-      <c r="D13" t="n">
-        <v>414.2430759986129</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>185</v>
       </c>
-      <c r="C14" t="n">
-        <v>-62.87848337455383</v>
-      </c>
-      <c r="D14" t="n">
-        <v>418.8418665946095</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>214</v>
       </c>
-      <c r="C15" t="n">
-        <v>-25.09451950646735</v>
-      </c>
-      <c r="D15" t="n">
-        <v>471.689708558026</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>224</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.889856550039705</v>
-      </c>
-      <c r="D16" t="n">
-        <v>467.106979003664</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>234</v>
       </c>
-      <c r="C17" t="n">
-        <v>8.173508247153569</v>
-      </c>
-      <c r="D17" t="n">
-        <v>476.9547651488971</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>244</v>
       </c>
-      <c r="C18" t="n">
-        <v>32.9041982393868</v>
-      </c>
-      <c r="D18" t="n">
-        <v>482.7621548996375</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>254</v>
       </c>
-      <c r="C19" t="n">
-        <v>21.78281918669733</v>
-      </c>
-      <c r="D19" t="n">
-        <v>481.9480631763515</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>293</v>
       </c>
-      <c r="C20" t="n">
-        <v>48.68833810964768</v>
-      </c>
-      <c r="D20" t="n">
-        <v>546.3291677403976</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>303</v>
       </c>
-      <c r="C21" t="n">
-        <v>60.45622478727026</v>
-      </c>
-      <c r="D21" t="n">
-        <v>544.3824832138426</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>313</v>
       </c>
-      <c r="C22" t="n">
-        <v>58.96182542808541</v>
-      </c>
-      <c r="D22" t="n">
-        <v>543.3745447467019</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>323</v>
       </c>
-      <c r="C23" t="n">
-        <v>60.86403329918749</v>
-      </c>
-      <c r="D23" t="n">
-        <v>558.7319112537994</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>333</v>
       </c>
-      <c r="C24" t="n">
-        <v>83.44239008115072</v>
-      </c>
-      <c r="D24" t="n">
-        <v>582.5509353217151</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>343</v>
       </c>
-      <c r="C25" t="n">
-        <v>92.83520857477819</v>
-      </c>
-      <c r="D25" t="n">
-        <v>591.829623457608</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>353</v>
       </c>
-      <c r="C26" t="n">
-        <v>116.4934122145539</v>
-      </c>
-      <c r="D26" t="n">
-        <v>588.7160980185839</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>363</v>
       </c>
-      <c r="C27" t="n">
-        <v>128.8234941792677</v>
-      </c>
-      <c r="D27" t="n">
-        <v>606.1585475680794</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>372</v>
       </c>
-      <c r="C28" t="n">
-        <v>126.4628130631263</v>
-      </c>
-      <c r="D28" t="n">
-        <v>606.9301286599317</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1148,12 +976,6 @@
       <c r="B29" t="n">
         <v>382</v>
       </c>
-      <c r="C29" t="n">
-        <v>137.5123834220825</v>
-      </c>
-      <c r="D29" t="n">
-        <v>613.0109405071452</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1162,12 +984,6 @@
       <c r="B30" t="n">
         <v>392</v>
       </c>
-      <c r="C30" t="n">
-        <v>144.4752250248308</v>
-      </c>
-      <c r="D30" t="n">
-        <v>618.731045328993</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1175,12 +991,6 @@
       </c>
       <c r="B31" t="n">
         <v>402</v>
-      </c>
-      <c r="C31" t="n">
-        <v>159.3371444400644</v>
-      </c>
-      <c r="D31" t="n">
-        <v>645.2468979219401</v>
       </c>
     </row>
   </sheetData>
